--- a/myCpps_2020/CF_113B_Petr#/err-4195.xlsx
+++ b/myCpps_2020/CF_113B_Petr#/err-4195.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\myCpps_2020\CF_113B_Petr#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C123DFC-2ED5-4883-B988-F0C02B3575D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E72C7D-3EA7-4622-A865-983E90A29E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12990" xr2:uid="{7150B7AB-95F0-4B10-B1CC-22194FBB8800}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="18">
   <si>
     <t>a</t>
   </si>
@@ -73,12 +73,32 @@
     <t>ans=10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>bbab</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>ans=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbba</t>
+  </si>
+  <si>
+    <t>bba</t>
+  </si>
+  <si>
+    <t>ans=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +132,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -177,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +260,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2091,17 +2129,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B653A9-23B7-4491-8316-A6CD73647884}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.2109375" style="7" customWidth="1"/>
     <col min="2" max="12" width="3.28515625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="13" max="19" width="3.2109375" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2480,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
@@ -2494,7 +2533,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>7</v>
       </c>
@@ -2532,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2546,7 +2585,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>8</v>
       </c>
@@ -2584,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -2598,7 +2637,7 @@
       <c r="K21" s="16"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>9</v>
       </c>
@@ -2636,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -2650,7 +2689,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>10</v>
       </c>
@@ -2688,10 +2727,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>11</v>
       </c>
@@ -2707,12 +2746,666 @@
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
     </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="19">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2</v>
+      </c>
+      <c r="E29" s="19">
+        <v>3</v>
+      </c>
+      <c r="F29" s="19">
+        <v>4</v>
+      </c>
+      <c r="G29" s="19">
+        <v>5</v>
+      </c>
+      <c r="H29" s="19">
+        <v>6</v>
+      </c>
+      <c r="I29" s="19">
+        <v>7</v>
+      </c>
+      <c r="J29" s="19">
+        <v>8</v>
+      </c>
+      <c r="K29" s="19">
+        <v>9</v>
+      </c>
+      <c r="L29" s="19">
+        <v>10</v>
+      </c>
+      <c r="M29" s="19">
+        <v>11</v>
+      </c>
+      <c r="N29" s="19">
+        <v>12</v>
+      </c>
+      <c r="O29" s="19">
+        <v>13</v>
+      </c>
+      <c r="P29" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>15</v>
+      </c>
+      <c r="R29" s="19">
+        <v>16</v>
+      </c>
+      <c r="S29" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="21">
+        <v>2</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>3</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>4</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>5</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
+        <v>0</v>
+      </c>
+      <c r="C45" s="19">
+        <v>1</v>
+      </c>
+      <c r="D45" s="19">
+        <v>2</v>
+      </c>
+      <c r="E45" s="19">
+        <v>3</v>
+      </c>
+      <c r="F45" s="19">
+        <v>4</v>
+      </c>
+      <c r="G45" s="19">
+        <v>5</v>
+      </c>
+      <c r="H45" s="19">
+        <v>6</v>
+      </c>
+      <c r="I45" s="19">
+        <v>7</v>
+      </c>
+      <c r="J45" s="19">
+        <v>8</v>
+      </c>
+      <c r="K45" s="19">
+        <v>9</v>
+      </c>
+      <c r="L45" s="19">
+        <v>10</v>
+      </c>
+      <c r="M45" s="19">
+        <v>11</v>
+      </c>
+      <c r="N45" s="19">
+        <v>12</v>
+      </c>
+      <c r="O45" s="19">
+        <v>13</v>
+      </c>
+      <c r="P45" s="19">
+        <v>14</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>15</v>
+      </c>
+      <c r="R45" s="19">
+        <v>16</v>
+      </c>
+      <c r="S45" s="19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>1</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R48" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="S48" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A49:L49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
